--- a/data/Utilization_Add1proj.xlsx
+++ b/data/Utilization_Add1proj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>...11</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>...12</t>
+          <t>project_name</t>
         </is>
       </c>
     </row>
@@ -546,12 +541,7 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -594,12 +584,7 @@
       <c r="L3" t="n">
         <v>104</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -642,12 +627,7 @@
       <c r="L4" t="n">
         <v>80</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -690,12 +670,7 @@
       <c r="L5" t="n">
         <v>81</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -738,12 +713,7 @@
       <c r="L6" t="n">
         <v>265</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -786,12 +756,7 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -834,12 +799,7 @@
       <c r="L8" t="n">
         <v>49</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.53</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -882,12 +842,7 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -930,12 +885,7 @@
       <c r="L10" t="n">
         <v>109</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -978,12 +928,7 @@
       <c r="L11" t="n">
         <v>103</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1026,12 +971,7 @@
       <c r="L12" t="n">
         <v>93</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1074,12 +1014,7 @@
       <c r="L13" t="n">
         <v>95</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1122,12 +1057,7 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1170,12 +1100,7 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1218,12 +1143,7 @@
       <c r="L16" t="n">
         <v>65</v>
       </c>
-      <c r="M16" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.68</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1266,12 +1186,7 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1314,12 +1229,7 @@
       <c r="L18" t="n">
         <v>235</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1362,12 +1272,7 @@
       <c r="L19" t="n">
         <v>127</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1410,12 +1315,7 @@
       <c r="L20" t="n">
         <v>20</v>
       </c>
-      <c r="M20" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.23</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1458,12 +1358,7 @@
       <c r="L21" t="n">
         <v>47</v>
       </c>
-      <c r="M21" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.52</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1511,7 +1406,6 @@
         <v>48</v>
       </c>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1559,7 +1453,6 @@
         <v>243</v>
       </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1607,7 +1500,6 @@
         <v>128</v>
       </c>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1655,7 +1547,6 @@
         <v>23</v>
       </c>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1703,7 +1594,261 @@
         <v>54</v>
       </c>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1PD00T550001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23R000</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>DEP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23R000</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38</v>
+      </c>
+      <c r="K27" t="n">
+        <v>53</v>
+      </c>
+      <c r="L27" t="n">
+        <v>48</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>VT306-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1PD00T550001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>23R000</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DEP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23R200</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>109</v>
+      </c>
+      <c r="G28" t="n">
+        <v>88</v>
+      </c>
+      <c r="H28" t="n">
+        <v>123</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>219</v>
+      </c>
+      <c r="K28" t="n">
+        <v>164</v>
+      </c>
+      <c r="L28" t="n">
+        <v>243</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>VT306-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1PD00T550001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>23R000</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DEP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23R300</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>98</v>
+      </c>
+      <c r="G29" t="n">
+        <v>101</v>
+      </c>
+      <c r="H29" t="n">
+        <v>91</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>112</v>
+      </c>
+      <c r="K29" t="n">
+        <v>82</v>
+      </c>
+      <c r="L29" t="n">
+        <v>128</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>VT306-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1PD00T550001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>23R000</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SUB</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ME</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" t="n">
+        <v>18</v>
+      </c>
+      <c r="H30" t="n">
+        <v>17</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" t="n">
+        <v>23</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>VT306-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1PD00T550001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>23R000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SUB</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>23</v>
+      </c>
+      <c r="G31" t="n">
+        <v>22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>27</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>49</v>
+      </c>
+      <c r="K31" t="n">
+        <v>36</v>
+      </c>
+      <c r="L31" t="n">
+        <v>54</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>VT306-C</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/Utilization_Add1proj.xlsx
+++ b/data/Utilization_Add1proj.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,6 @@
           <t>a_3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -541,7 +536,6 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -576,15 +570,14 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" t="n">
-        <v>104</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -619,15 +612,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" t="n">
-        <v>80</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -668,9 +660,8 @@
         <v>55.00000000000001</v>
       </c>
       <c r="L5" t="n">
-        <v>81</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -705,15 +696,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L6" t="n">
-        <v>265</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>261</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -756,7 +746,6 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -797,9 +786,8 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>49</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -842,7 +830,6 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -877,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K10" t="n">
         <v>79</v>
@@ -885,7 +872,6 @@
       <c r="L10" t="n">
         <v>109</v>
       </c>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -920,15 +906,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" t="n">
-        <v>103</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -966,12 +951,11 @@
         <v>87</v>
       </c>
       <c r="K12" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="n">
-        <v>93</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1014,7 +998,6 @@
       <c r="L13" t="n">
         <v>95</v>
       </c>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1057,7 +1040,6 @@
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1100,7 +1082,6 @@
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1141,9 +1122,8 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>65</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1186,7 +1166,6 @@
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1221,15 +1200,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K18" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L18" t="n">
-        <v>235</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>230</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1264,15 +1242,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K19" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L19" t="n">
-        <v>127</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>113</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1313,9 +1290,8 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>20</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1356,498 +1332,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>47</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>DEP</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>38</v>
-      </c>
-      <c r="K22" t="n">
-        <v>53</v>
-      </c>
-      <c r="L22" t="n">
-        <v>48</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>DEP</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23R200</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>109</v>
-      </c>
-      <c r="G23" t="n">
-        <v>88</v>
-      </c>
-      <c r="H23" t="n">
-        <v>123</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>219</v>
-      </c>
-      <c r="K23" t="n">
-        <v>164</v>
-      </c>
-      <c r="L23" t="n">
-        <v>243</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>DEP</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>23R300</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>98</v>
-      </c>
-      <c r="G24" t="n">
-        <v>101</v>
-      </c>
-      <c r="H24" t="n">
-        <v>91</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>112</v>
-      </c>
-      <c r="K24" t="n">
-        <v>82</v>
-      </c>
-      <c r="L24" t="n">
-        <v>128</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>SUB</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>20</v>
-      </c>
-      <c r="G25" t="n">
-        <v>18</v>
-      </c>
-      <c r="H25" t="n">
-        <v>17</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>20</v>
-      </c>
-      <c r="K25" t="n">
-        <v>15</v>
-      </c>
-      <c r="L25" t="n">
-        <v>23</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SUB</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>RH</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>23</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22</v>
-      </c>
-      <c r="H26" t="n">
-        <v>27</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>49</v>
-      </c>
-      <c r="K26" t="n">
-        <v>36</v>
-      </c>
-      <c r="L26" t="n">
-        <v>54</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>DEP</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>38</v>
-      </c>
-      <c r="K27" t="n">
-        <v>53</v>
-      </c>
-      <c r="L27" t="n">
-        <v>48</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>VT306-C</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DEP</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>23R200</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>109</v>
-      </c>
-      <c r="G28" t="n">
-        <v>88</v>
-      </c>
-      <c r="H28" t="n">
-        <v>123</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>219</v>
-      </c>
-      <c r="K28" t="n">
-        <v>164</v>
-      </c>
-      <c r="L28" t="n">
-        <v>243</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>VT306-C</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>DEP</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>23R300</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>98</v>
-      </c>
-      <c r="G29" t="n">
-        <v>101</v>
-      </c>
-      <c r="H29" t="n">
-        <v>91</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>112</v>
-      </c>
-      <c r="K29" t="n">
-        <v>82</v>
-      </c>
-      <c r="L29" t="n">
-        <v>128</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>VT306-C</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SUB</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ME</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>20</v>
-      </c>
-      <c r="G30" t="n">
-        <v>18</v>
-      </c>
-      <c r="H30" t="n">
-        <v>17</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>20</v>
-      </c>
-      <c r="K30" t="n">
-        <v>15</v>
-      </c>
-      <c r="L30" t="n">
-        <v>23</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>VT306-C</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1PD00T550001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>23R000</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>SUB</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>RH</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>23</v>
-      </c>
-      <c r="G31" t="n">
-        <v>22</v>
-      </c>
-      <c r="H31" t="n">
-        <v>27</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>49</v>
-      </c>
-      <c r="K31" t="n">
-        <v>36</v>
-      </c>
-      <c r="L31" t="n">
-        <v>54</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>VT306-C</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
